--- a/expense_list2016/201607_expense_list.xlsx
+++ b/expense_list2016/201607_expense_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="714">
   <si>
     <t>nid</t>
   </si>
@@ -1827,6 +1827,336 @@
   </si>
   <si>
     <t>다문화가족팀장 외 20</t>
+  </si>
+  <si>
+    <t>물순환안전국 난지물재생센터 운영과 7월 업무추진비 사용내역</t>
+  </si>
+  <si>
+    <t>http://opengov.seoul.go.kr/public/10807539</t>
+  </si>
+  <si>
+    <t>사업소</t>
+  </si>
+  <si>
+    <t>물재생센터</t>
+  </si>
+  <si>
+    <t>난지물재생센터</t>
+  </si>
+  <si>
+    <t>운영과</t>
+  </si>
+  <si>
+    <t>2016-07-22 09:50</t>
+  </si>
+  <si>
+    <t>하나꽃화원(고양시 덕양구 행주로134(행주내동))</t>
+  </si>
+  <si>
+    <t>2016-07-06 01:36</t>
+  </si>
+  <si>
+    <t>치킨(고양삼송점)</t>
+  </si>
+  <si>
+    <t>2016-07-15 15:00</t>
+  </si>
+  <si>
+    <t>다농마트(마포구 월드컵로235)</t>
+  </si>
+  <si>
+    <t>개성집(고양시 덕양구 행주로 66 1층(행주내동))</t>
+  </si>
+  <si>
+    <t>과장외5명</t>
+  </si>
+  <si>
+    <t>2016-07-21 16:28</t>
+  </si>
+  <si>
+    <t>바다물류(고양시 행주내동)</t>
+  </si>
+  <si>
+    <t>2016-07-26 11:22</t>
+  </si>
+  <si>
+    <t>한국유통(능곡점)</t>
+  </si>
+  <si>
+    <t>2016년 7월 주택정책과 업추비 공개</t>
+  </si>
+  <si>
+    <t>http://opengov.seoul.go.kr/public/10888909</t>
+  </si>
+  <si>
+    <t>주택건축국</t>
+  </si>
+  <si>
+    <t>주택정책과</t>
+  </si>
+  <si>
+    <t>2016-07-29 12:17</t>
+  </si>
+  <si>
+    <t>명동칼국수（시청점）</t>
+  </si>
+  <si>
+    <t>주택건축국장 외 6명</t>
+  </si>
+  <si>
+    <t>2016-07-28 12:13</t>
+  </si>
+  <si>
+    <t>（주）김삼보</t>
+  </si>
+  <si>
+    <t>주택건축국장 외 4명</t>
+  </si>
+  <si>
+    <t>2016-07-27 12:13</t>
+  </si>
+  <si>
+    <t>주택건축국장 외 21명</t>
+  </si>
+  <si>
+    <t>2016-07-27 20:26</t>
+  </si>
+  <si>
+    <t>민소한우</t>
+  </si>
+  <si>
+    <t>주택정책과장 외 4명</t>
+  </si>
+  <si>
+    <t>2016-07-27 15:27</t>
+  </si>
+  <si>
+    <t>아리스타커피</t>
+  </si>
+  <si>
+    <t>주택건축국 직원</t>
+  </si>
+  <si>
+    <t>2016-07-27 12:18</t>
+  </si>
+  <si>
+    <t>주택건축국장 외 9명</t>
+  </si>
+  <si>
+    <t>2016-07-26 21:43</t>
+  </si>
+  <si>
+    <t>삼우정</t>
+  </si>
+  <si>
+    <t>주택정책과장 외 10명</t>
+  </si>
+  <si>
+    <t>2016-07-26 12:11</t>
+  </si>
+  <si>
+    <t>주택건축국장 외 5명</t>
+  </si>
+  <si>
+    <t>2016-07-25 12:08</t>
+  </si>
+  <si>
+    <t>에뜨랑제레스토랑호프</t>
+  </si>
+  <si>
+    <t>2016-07-22 19:56</t>
+  </si>
+  <si>
+    <t>반갑다하대포</t>
+  </si>
+  <si>
+    <t>2016-07-21 18:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">주택건축국장 외 5명 </t>
+  </si>
+  <si>
+    <t>2016-07-19 12:51</t>
+  </si>
+  <si>
+    <t>전주매운탕</t>
+  </si>
+  <si>
+    <t>미래에이비엠 관계자 등 12명</t>
+  </si>
+  <si>
+    <t>2016-07-15 12:54</t>
+  </si>
+  <si>
+    <t>롯데물산（주）롯데월</t>
+  </si>
+  <si>
+    <t>주택정책과장 외 2명</t>
+  </si>
+  <si>
+    <t>2016-07-15 20:20</t>
+  </si>
+  <si>
+    <t>삼원</t>
+  </si>
+  <si>
+    <t>2016-07-15 20:13</t>
+  </si>
+  <si>
+    <t>싸바치킨</t>
+  </si>
+  <si>
+    <t>주택정책과장 외 5명</t>
+  </si>
+  <si>
+    <t>2016-07-15 12:34</t>
+  </si>
+  <si>
+    <t>임대문화팀장 외 5명</t>
+  </si>
+  <si>
+    <t>2016-07-15 16:33</t>
+  </si>
+  <si>
+    <t>ＧＳ２５중구무교점</t>
+  </si>
+  <si>
+    <t>2016-07-14 19:56</t>
+  </si>
+  <si>
+    <t>오리마당</t>
+  </si>
+  <si>
+    <t>전월세팀장 외 6명</t>
+  </si>
+  <si>
+    <t>2016-07-14 21:50</t>
+  </si>
+  <si>
+    <t>막내네회집</t>
+  </si>
+  <si>
+    <t>주택정책팀장 외 3명</t>
+  </si>
+  <si>
+    <t>2016-07-13 12:52</t>
+  </si>
+  <si>
+    <t>주식회사　동원브이아</t>
+  </si>
+  <si>
+    <t>2016-07-13 13:24</t>
+  </si>
+  <si>
+    <t>석기정　서울역점</t>
+  </si>
+  <si>
+    <t>국토교통부 이**서기관 외 5명</t>
+  </si>
+  <si>
+    <t>2016-07-11 11:53</t>
+  </si>
+  <si>
+    <t>대가</t>
+  </si>
+  <si>
+    <t>주택정책과장 외 3명</t>
+  </si>
+  <si>
+    <t>2016-07-11 12:55</t>
+  </si>
+  <si>
+    <t>박** 연구위원 외 6명</t>
+  </si>
+  <si>
+    <t>2016-07-08 22:12</t>
+  </si>
+  <si>
+    <t>동원참치브이아이피（</t>
+  </si>
+  <si>
+    <t>주택건축국장 외 5</t>
+  </si>
+  <si>
+    <t>2016-07-07 12:58</t>
+  </si>
+  <si>
+    <t>이종구낙지세상</t>
+  </si>
+  <si>
+    <t>임대문화팀장 외 3명</t>
+  </si>
+  <si>
+    <t>2016-07-07 10:53</t>
+  </si>
+  <si>
+    <t>카페사켈라</t>
+  </si>
+  <si>
+    <t>2016-07-06 16:45</t>
+  </si>
+  <si>
+    <t>（주）미스터피자　명</t>
+  </si>
+  <si>
+    <t>주택정책과 직원</t>
+  </si>
+  <si>
+    <t>2016-07-06 19:28</t>
+  </si>
+  <si>
+    <t>주택정책과장 외 6명</t>
+  </si>
+  <si>
+    <t>2016-07-06 12:25</t>
+  </si>
+  <si>
+    <t>남산집</t>
+  </si>
+  <si>
+    <t>2016-07-05 20:43</t>
+  </si>
+  <si>
+    <t>주택정책과장 외 11명</t>
+  </si>
+  <si>
+    <t>참숯골</t>
+  </si>
+  <si>
+    <t>주택건축국장 외 25명</t>
+  </si>
+  <si>
+    <t>2016-07-05 20:53</t>
+  </si>
+  <si>
+    <t>2016-07-04 12:28</t>
+  </si>
+  <si>
+    <t>주택정책과장 외 8명</t>
+  </si>
+  <si>
+    <t>2016-07-04 19:12</t>
+  </si>
+  <si>
+    <t>참맛순대국</t>
+  </si>
+  <si>
+    <t>주택정책팀장 외 7명</t>
+  </si>
+  <si>
+    <t>2016-07-02 12:26</t>
+  </si>
+  <si>
+    <t>주택건축국장 외 3명</t>
+  </si>
+  <si>
+    <t>2016-07-01 21:34</t>
+  </si>
+  <si>
+    <t>주택정책과장 외 7명</t>
+  </si>
+  <si>
+    <t>2016-07-01 12:55</t>
   </si>
 </sst>
 </file>
@@ -2165,7 +2495,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R262"/>
+  <dimension ref="A1:R305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -14417,6 +14747,1982 @@
       </c>
       <c r="R262">
         <v>312000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18">
+      <c r="A263">
+        <v>10807539</v>
+      </c>
+      <c r="B263" t="s">
+        <v>604</v>
+      </c>
+      <c r="C263" t="s">
+        <v>605</v>
+      </c>
+      <c r="D263" t="s">
+        <v>606</v>
+      </c>
+      <c r="E263" t="s">
+        <v>607</v>
+      </c>
+      <c r="F263" t="s">
+        <v>608</v>
+      </c>
+      <c r="G263" t="s">
+        <v>609</v>
+      </c>
+      <c r="H263"/>
+      <c r="I263">
+        <v>2016</v>
+      </c>
+      <c r="J263">
+        <v>7</v>
+      </c>
+      <c r="K263"/>
+      <c r="L263"/>
+      <c r="M263"/>
+      <c r="N263" t="s">
+        <v>610</v>
+      </c>
+      <c r="O263" t="s">
+        <v>611</v>
+      </c>
+      <c r="P263"/>
+      <c r="Q263" t="s">
+        <v>26</v>
+      </c>
+      <c r="R263">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18">
+      <c r="A264">
+        <v>10807539</v>
+      </c>
+      <c r="B264" t="s">
+        <v>604</v>
+      </c>
+      <c r="C264" t="s">
+        <v>605</v>
+      </c>
+      <c r="D264" t="s">
+        <v>606</v>
+      </c>
+      <c r="E264" t="s">
+        <v>607</v>
+      </c>
+      <c r="F264" t="s">
+        <v>608</v>
+      </c>
+      <c r="G264" t="s">
+        <v>609</v>
+      </c>
+      <c r="H264"/>
+      <c r="I264">
+        <v>2016</v>
+      </c>
+      <c r="J264">
+        <v>7</v>
+      </c>
+      <c r="K264"/>
+      <c r="L264"/>
+      <c r="M264"/>
+      <c r="N264" t="s">
+        <v>612</v>
+      </c>
+      <c r="O264" t="s">
+        <v>613</v>
+      </c>
+      <c r="P264"/>
+      <c r="Q264" t="s">
+        <v>26</v>
+      </c>
+      <c r="R264">
+        <v>57700</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18">
+      <c r="A265">
+        <v>10807539</v>
+      </c>
+      <c r="B265" t="s">
+        <v>604</v>
+      </c>
+      <c r="C265" t="s">
+        <v>605</v>
+      </c>
+      <c r="D265" t="s">
+        <v>606</v>
+      </c>
+      <c r="E265" t="s">
+        <v>607</v>
+      </c>
+      <c r="F265" t="s">
+        <v>608</v>
+      </c>
+      <c r="G265" t="s">
+        <v>609</v>
+      </c>
+      <c r="H265"/>
+      <c r="I265">
+        <v>2016</v>
+      </c>
+      <c r="J265">
+        <v>7</v>
+      </c>
+      <c r="K265"/>
+      <c r="L265"/>
+      <c r="M265"/>
+      <c r="N265" t="s">
+        <v>614</v>
+      </c>
+      <c r="O265" t="s">
+        <v>615</v>
+      </c>
+      <c r="P265"/>
+      <c r="Q265" t="s">
+        <v>26</v>
+      </c>
+      <c r="R265">
+        <v>330200</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18">
+      <c r="A266">
+        <v>10807539</v>
+      </c>
+      <c r="B266" t="s">
+        <v>604</v>
+      </c>
+      <c r="C266" t="s">
+        <v>605</v>
+      </c>
+      <c r="D266" t="s">
+        <v>606</v>
+      </c>
+      <c r="E266" t="s">
+        <v>607</v>
+      </c>
+      <c r="F266" t="s">
+        <v>608</v>
+      </c>
+      <c r="G266" t="s">
+        <v>609</v>
+      </c>
+      <c r="H266"/>
+      <c r="I266">
+        <v>2016</v>
+      </c>
+      <c r="J266">
+        <v>7</v>
+      </c>
+      <c r="K266"/>
+      <c r="L266"/>
+      <c r="M266"/>
+      <c r="N266" t="s">
+        <v>565</v>
+      </c>
+      <c r="O266" t="s">
+        <v>616</v>
+      </c>
+      <c r="P266" t="s">
+        <v>617</v>
+      </c>
+      <c r="Q266" t="s">
+        <v>26</v>
+      </c>
+      <c r="R266">
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18">
+      <c r="A267">
+        <v>10807539</v>
+      </c>
+      <c r="B267" t="s">
+        <v>604</v>
+      </c>
+      <c r="C267" t="s">
+        <v>605</v>
+      </c>
+      <c r="D267" t="s">
+        <v>606</v>
+      </c>
+      <c r="E267" t="s">
+        <v>607</v>
+      </c>
+      <c r="F267" t="s">
+        <v>608</v>
+      </c>
+      <c r="G267" t="s">
+        <v>609</v>
+      </c>
+      <c r="H267"/>
+      <c r="I267">
+        <v>2016</v>
+      </c>
+      <c r="J267">
+        <v>7</v>
+      </c>
+      <c r="K267"/>
+      <c r="L267"/>
+      <c r="M267"/>
+      <c r="N267" t="s">
+        <v>618</v>
+      </c>
+      <c r="O267" t="s">
+        <v>619</v>
+      </c>
+      <c r="P267"/>
+      <c r="Q267" t="s">
+        <v>26</v>
+      </c>
+      <c r="R267">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18">
+      <c r="A268">
+        <v>10807539</v>
+      </c>
+      <c r="B268" t="s">
+        <v>604</v>
+      </c>
+      <c r="C268" t="s">
+        <v>605</v>
+      </c>
+      <c r="D268" t="s">
+        <v>606</v>
+      </c>
+      <c r="E268" t="s">
+        <v>607</v>
+      </c>
+      <c r="F268" t="s">
+        <v>608</v>
+      </c>
+      <c r="G268" t="s">
+        <v>609</v>
+      </c>
+      <c r="H268"/>
+      <c r="I268">
+        <v>2016</v>
+      </c>
+      <c r="J268">
+        <v>7</v>
+      </c>
+      <c r="K268"/>
+      <c r="L268"/>
+      <c r="M268"/>
+      <c r="N268" t="s">
+        <v>620</v>
+      </c>
+      <c r="O268" t="s">
+        <v>621</v>
+      </c>
+      <c r="P268"/>
+      <c r="Q268"/>
+      <c r="R268">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18">
+      <c r="A269">
+        <v>10888909</v>
+      </c>
+      <c r="B269" t="s">
+        <v>622</v>
+      </c>
+      <c r="C269" t="s">
+        <v>623</v>
+      </c>
+      <c r="D269" t="s">
+        <v>20</v>
+      </c>
+      <c r="E269" t="s">
+        <v>624</v>
+      </c>
+      <c r="F269" t="s">
+        <v>625</v>
+      </c>
+      <c r="G269"/>
+      <c r="H269"/>
+      <c r="I269">
+        <v>2016</v>
+      </c>
+      <c r="J269">
+        <v>7</v>
+      </c>
+      <c r="K269"/>
+      <c r="L269"/>
+      <c r="M269"/>
+      <c r="N269" t="s">
+        <v>626</v>
+      </c>
+      <c r="O269" t="s">
+        <v>627</v>
+      </c>
+      <c r="P269" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q269" t="s">
+        <v>26</v>
+      </c>
+      <c r="R269">
+        <v>87500</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18">
+      <c r="A270">
+        <v>10888909</v>
+      </c>
+      <c r="B270" t="s">
+        <v>622</v>
+      </c>
+      <c r="C270" t="s">
+        <v>623</v>
+      </c>
+      <c r="D270" t="s">
+        <v>20</v>
+      </c>
+      <c r="E270" t="s">
+        <v>624</v>
+      </c>
+      <c r="F270" t="s">
+        <v>625</v>
+      </c>
+      <c r="G270"/>
+      <c r="H270"/>
+      <c r="I270">
+        <v>2016</v>
+      </c>
+      <c r="J270">
+        <v>7</v>
+      </c>
+      <c r="K270"/>
+      <c r="L270"/>
+      <c r="M270"/>
+      <c r="N270" t="s">
+        <v>629</v>
+      </c>
+      <c r="O270" t="s">
+        <v>630</v>
+      </c>
+      <c r="P270" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q270" t="s">
+        <v>26</v>
+      </c>
+      <c r="R270">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18">
+      <c r="A271">
+        <v>10888909</v>
+      </c>
+      <c r="B271" t="s">
+        <v>622</v>
+      </c>
+      <c r="C271" t="s">
+        <v>623</v>
+      </c>
+      <c r="D271" t="s">
+        <v>20</v>
+      </c>
+      <c r="E271" t="s">
+        <v>624</v>
+      </c>
+      <c r="F271" t="s">
+        <v>625</v>
+      </c>
+      <c r="G271"/>
+      <c r="H271"/>
+      <c r="I271">
+        <v>2016</v>
+      </c>
+      <c r="J271">
+        <v>7</v>
+      </c>
+      <c r="K271"/>
+      <c r="L271"/>
+      <c r="M271"/>
+      <c r="N271" t="s">
+        <v>632</v>
+      </c>
+      <c r="O271" t="s">
+        <v>557</v>
+      </c>
+      <c r="P271" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q271" t="s">
+        <v>26</v>
+      </c>
+      <c r="R271">
+        <v>242000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18">
+      <c r="A272">
+        <v>10888909</v>
+      </c>
+      <c r="B272" t="s">
+        <v>622</v>
+      </c>
+      <c r="C272" t="s">
+        <v>623</v>
+      </c>
+      <c r="D272" t="s">
+        <v>20</v>
+      </c>
+      <c r="E272" t="s">
+        <v>624</v>
+      </c>
+      <c r="F272" t="s">
+        <v>625</v>
+      </c>
+      <c r="G272"/>
+      <c r="H272"/>
+      <c r="I272">
+        <v>2016</v>
+      </c>
+      <c r="J272">
+        <v>7</v>
+      </c>
+      <c r="K272"/>
+      <c r="L272"/>
+      <c r="M272"/>
+      <c r="N272" t="s">
+        <v>634</v>
+      </c>
+      <c r="O272" t="s">
+        <v>635</v>
+      </c>
+      <c r="P272" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q272" t="s">
+        <v>26</v>
+      </c>
+      <c r="R272">
+        <v>163000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:18">
+      <c r="A273">
+        <v>10888909</v>
+      </c>
+      <c r="B273" t="s">
+        <v>622</v>
+      </c>
+      <c r="C273" t="s">
+        <v>623</v>
+      </c>
+      <c r="D273" t="s">
+        <v>20</v>
+      </c>
+      <c r="E273" t="s">
+        <v>624</v>
+      </c>
+      <c r="F273" t="s">
+        <v>625</v>
+      </c>
+      <c r="G273"/>
+      <c r="H273"/>
+      <c r="I273">
+        <v>2016</v>
+      </c>
+      <c r="J273">
+        <v>7</v>
+      </c>
+      <c r="K273"/>
+      <c r="L273"/>
+      <c r="M273"/>
+      <c r="N273" t="s">
+        <v>637</v>
+      </c>
+      <c r="O273" t="s">
+        <v>638</v>
+      </c>
+      <c r="P273" t="s">
+        <v>639</v>
+      </c>
+      <c r="Q273" t="s">
+        <v>26</v>
+      </c>
+      <c r="R273">
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="274" spans="1:18">
+      <c r="A274">
+        <v>10888909</v>
+      </c>
+      <c r="B274" t="s">
+        <v>622</v>
+      </c>
+      <c r="C274" t="s">
+        <v>623</v>
+      </c>
+      <c r="D274" t="s">
+        <v>20</v>
+      </c>
+      <c r="E274" t="s">
+        <v>624</v>
+      </c>
+      <c r="F274" t="s">
+        <v>625</v>
+      </c>
+      <c r="G274"/>
+      <c r="H274"/>
+      <c r="I274">
+        <v>2016</v>
+      </c>
+      <c r="J274">
+        <v>7</v>
+      </c>
+      <c r="K274"/>
+      <c r="L274"/>
+      <c r="M274"/>
+      <c r="N274" t="s">
+        <v>640</v>
+      </c>
+      <c r="O274" t="s">
+        <v>635</v>
+      </c>
+      <c r="P274" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q274" t="s">
+        <v>26</v>
+      </c>
+      <c r="R274">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="275" spans="1:18">
+      <c r="A275">
+        <v>10888909</v>
+      </c>
+      <c r="B275" t="s">
+        <v>622</v>
+      </c>
+      <c r="C275" t="s">
+        <v>623</v>
+      </c>
+      <c r="D275" t="s">
+        <v>20</v>
+      </c>
+      <c r="E275" t="s">
+        <v>624</v>
+      </c>
+      <c r="F275" t="s">
+        <v>625</v>
+      </c>
+      <c r="G275"/>
+      <c r="H275"/>
+      <c r="I275">
+        <v>2016</v>
+      </c>
+      <c r="J275">
+        <v>7</v>
+      </c>
+      <c r="K275"/>
+      <c r="L275"/>
+      <c r="M275"/>
+      <c r="N275" t="s">
+        <v>642</v>
+      </c>
+      <c r="O275" t="s">
+        <v>643</v>
+      </c>
+      <c r="P275" t="s">
+        <v>644</v>
+      </c>
+      <c r="Q275" t="s">
+        <v>26</v>
+      </c>
+      <c r="R275">
+        <v>227000</v>
+      </c>
+    </row>
+    <row r="276" spans="1:18">
+      <c r="A276">
+        <v>10888909</v>
+      </c>
+      <c r="B276" t="s">
+        <v>622</v>
+      </c>
+      <c r="C276" t="s">
+        <v>623</v>
+      </c>
+      <c r="D276" t="s">
+        <v>20</v>
+      </c>
+      <c r="E276" t="s">
+        <v>624</v>
+      </c>
+      <c r="F276" t="s">
+        <v>625</v>
+      </c>
+      <c r="G276"/>
+      <c r="H276"/>
+      <c r="I276">
+        <v>2016</v>
+      </c>
+      <c r="J276">
+        <v>7</v>
+      </c>
+      <c r="K276"/>
+      <c r="L276"/>
+      <c r="M276"/>
+      <c r="N276" t="s">
+        <v>645</v>
+      </c>
+      <c r="O276" t="s">
+        <v>557</v>
+      </c>
+      <c r="P276" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q276" t="s">
+        <v>26</v>
+      </c>
+      <c r="R276">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:18">
+      <c r="A277">
+        <v>10888909</v>
+      </c>
+      <c r="B277" t="s">
+        <v>622</v>
+      </c>
+      <c r="C277" t="s">
+        <v>623</v>
+      </c>
+      <c r="D277" t="s">
+        <v>20</v>
+      </c>
+      <c r="E277" t="s">
+        <v>624</v>
+      </c>
+      <c r="F277" t="s">
+        <v>625</v>
+      </c>
+      <c r="G277"/>
+      <c r="H277"/>
+      <c r="I277">
+        <v>2016</v>
+      </c>
+      <c r="J277">
+        <v>7</v>
+      </c>
+      <c r="K277"/>
+      <c r="L277"/>
+      <c r="M277"/>
+      <c r="N277" t="s">
+        <v>647</v>
+      </c>
+      <c r="O277" t="s">
+        <v>648</v>
+      </c>
+      <c r="P277" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q277" t="s">
+        <v>26</v>
+      </c>
+      <c r="R277">
+        <v>187500</v>
+      </c>
+    </row>
+    <row r="278" spans="1:18">
+      <c r="A278">
+        <v>10888909</v>
+      </c>
+      <c r="B278" t="s">
+        <v>622</v>
+      </c>
+      <c r="C278" t="s">
+        <v>623</v>
+      </c>
+      <c r="D278" t="s">
+        <v>20</v>
+      </c>
+      <c r="E278" t="s">
+        <v>624</v>
+      </c>
+      <c r="F278" t="s">
+        <v>625</v>
+      </c>
+      <c r="G278"/>
+      <c r="H278"/>
+      <c r="I278">
+        <v>2016</v>
+      </c>
+      <c r="J278">
+        <v>7</v>
+      </c>
+      <c r="K278"/>
+      <c r="L278"/>
+      <c r="M278"/>
+      <c r="N278" t="s">
+        <v>649</v>
+      </c>
+      <c r="O278" t="s">
+        <v>650</v>
+      </c>
+      <c r="P278" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q278" t="s">
+        <v>26</v>
+      </c>
+      <c r="R278">
+        <v>147000</v>
+      </c>
+    </row>
+    <row r="279" spans="1:18">
+      <c r="A279">
+        <v>10888909</v>
+      </c>
+      <c r="B279" t="s">
+        <v>622</v>
+      </c>
+      <c r="C279" t="s">
+        <v>623</v>
+      </c>
+      <c r="D279" t="s">
+        <v>20</v>
+      </c>
+      <c r="E279" t="s">
+        <v>624</v>
+      </c>
+      <c r="F279" t="s">
+        <v>625</v>
+      </c>
+      <c r="G279"/>
+      <c r="H279"/>
+      <c r="I279">
+        <v>2016</v>
+      </c>
+      <c r="J279">
+        <v>7</v>
+      </c>
+      <c r="K279"/>
+      <c r="L279"/>
+      <c r="M279"/>
+      <c r="N279" t="s">
+        <v>651</v>
+      </c>
+      <c r="O279" t="s">
+        <v>648</v>
+      </c>
+      <c r="P279" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q279" t="s">
+        <v>26</v>
+      </c>
+      <c r="R279">
+        <v>187500</v>
+      </c>
+    </row>
+    <row r="280" spans="1:18">
+      <c r="A280">
+        <v>10888909</v>
+      </c>
+      <c r="B280" t="s">
+        <v>622</v>
+      </c>
+      <c r="C280" t="s">
+        <v>623</v>
+      </c>
+      <c r="D280" t="s">
+        <v>20</v>
+      </c>
+      <c r="E280" t="s">
+        <v>624</v>
+      </c>
+      <c r="F280" t="s">
+        <v>625</v>
+      </c>
+      <c r="G280"/>
+      <c r="H280"/>
+      <c r="I280">
+        <v>2016</v>
+      </c>
+      <c r="J280">
+        <v>7</v>
+      </c>
+      <c r="K280"/>
+      <c r="L280"/>
+      <c r="M280"/>
+      <c r="N280" t="s">
+        <v>653</v>
+      </c>
+      <c r="O280" t="s">
+        <v>654</v>
+      </c>
+      <c r="P280" t="s">
+        <v>655</v>
+      </c>
+      <c r="Q280" t="s">
+        <v>26</v>
+      </c>
+      <c r="R280">
+        <v>117000</v>
+      </c>
+    </row>
+    <row r="281" spans="1:18">
+      <c r="A281">
+        <v>10888909</v>
+      </c>
+      <c r="B281" t="s">
+        <v>622</v>
+      </c>
+      <c r="C281" t="s">
+        <v>623</v>
+      </c>
+      <c r="D281" t="s">
+        <v>20</v>
+      </c>
+      <c r="E281" t="s">
+        <v>624</v>
+      </c>
+      <c r="F281" t="s">
+        <v>625</v>
+      </c>
+      <c r="G281"/>
+      <c r="H281"/>
+      <c r="I281">
+        <v>2016</v>
+      </c>
+      <c r="J281">
+        <v>7</v>
+      </c>
+      <c r="K281"/>
+      <c r="L281"/>
+      <c r="M281"/>
+      <c r="N281" t="s">
+        <v>656</v>
+      </c>
+      <c r="O281" t="s">
+        <v>657</v>
+      </c>
+      <c r="P281" t="s">
+        <v>658</v>
+      </c>
+      <c r="Q281" t="s">
+        <v>26</v>
+      </c>
+      <c r="R281">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="282" spans="1:18">
+      <c r="A282">
+        <v>10888909</v>
+      </c>
+      <c r="B282" t="s">
+        <v>622</v>
+      </c>
+      <c r="C282" t="s">
+        <v>623</v>
+      </c>
+      <c r="D282" t="s">
+        <v>20</v>
+      </c>
+      <c r="E282" t="s">
+        <v>624</v>
+      </c>
+      <c r="F282" t="s">
+        <v>625</v>
+      </c>
+      <c r="G282"/>
+      <c r="H282"/>
+      <c r="I282">
+        <v>2016</v>
+      </c>
+      <c r="J282">
+        <v>7</v>
+      </c>
+      <c r="K282"/>
+      <c r="L282"/>
+      <c r="M282"/>
+      <c r="N282" t="s">
+        <v>659</v>
+      </c>
+      <c r="O282" t="s">
+        <v>660</v>
+      </c>
+      <c r="P282" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q282" t="s">
+        <v>26</v>
+      </c>
+      <c r="R282">
+        <v>211000</v>
+      </c>
+    </row>
+    <row r="283" spans="1:18">
+      <c r="A283">
+        <v>10888909</v>
+      </c>
+      <c r="B283" t="s">
+        <v>622</v>
+      </c>
+      <c r="C283" t="s">
+        <v>623</v>
+      </c>
+      <c r="D283" t="s">
+        <v>20</v>
+      </c>
+      <c r="E283" t="s">
+        <v>624</v>
+      </c>
+      <c r="F283" t="s">
+        <v>625</v>
+      </c>
+      <c r="G283"/>
+      <c r="H283"/>
+      <c r="I283">
+        <v>2016</v>
+      </c>
+      <c r="J283">
+        <v>7</v>
+      </c>
+      <c r="K283"/>
+      <c r="L283"/>
+      <c r="M283"/>
+      <c r="N283" t="s">
+        <v>661</v>
+      </c>
+      <c r="O283" t="s">
+        <v>662</v>
+      </c>
+      <c r="P283" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q283" t="s">
+        <v>26</v>
+      </c>
+      <c r="R283">
+        <v>95500</v>
+      </c>
+    </row>
+    <row r="284" spans="1:18">
+      <c r="A284">
+        <v>10888909</v>
+      </c>
+      <c r="B284" t="s">
+        <v>622</v>
+      </c>
+      <c r="C284" t="s">
+        <v>623</v>
+      </c>
+      <c r="D284" t="s">
+        <v>20</v>
+      </c>
+      <c r="E284" t="s">
+        <v>624</v>
+      </c>
+      <c r="F284" t="s">
+        <v>625</v>
+      </c>
+      <c r="G284"/>
+      <c r="H284"/>
+      <c r="I284">
+        <v>2016</v>
+      </c>
+      <c r="J284">
+        <v>7</v>
+      </c>
+      <c r="K284"/>
+      <c r="L284"/>
+      <c r="M284"/>
+      <c r="N284" t="s">
+        <v>664</v>
+      </c>
+      <c r="O284" t="s">
+        <v>584</v>
+      </c>
+      <c r="P284" t="s">
+        <v>665</v>
+      </c>
+      <c r="Q284" t="s">
+        <v>26</v>
+      </c>
+      <c r="R284">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="285" spans="1:18">
+      <c r="A285">
+        <v>10888909</v>
+      </c>
+      <c r="B285" t="s">
+        <v>622</v>
+      </c>
+      <c r="C285" t="s">
+        <v>623</v>
+      </c>
+      <c r="D285" t="s">
+        <v>20</v>
+      </c>
+      <c r="E285" t="s">
+        <v>624</v>
+      </c>
+      <c r="F285" t="s">
+        <v>625</v>
+      </c>
+      <c r="G285"/>
+      <c r="H285"/>
+      <c r="I285">
+        <v>2016</v>
+      </c>
+      <c r="J285">
+        <v>7</v>
+      </c>
+      <c r="K285"/>
+      <c r="L285"/>
+      <c r="M285"/>
+      <c r="N285" t="s">
+        <v>666</v>
+      </c>
+      <c r="O285" t="s">
+        <v>667</v>
+      </c>
+      <c r="P285"/>
+      <c r="Q285" t="s">
+        <v>26</v>
+      </c>
+      <c r="R285">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="286" spans="1:18">
+      <c r="A286">
+        <v>10888909</v>
+      </c>
+      <c r="B286" t="s">
+        <v>622</v>
+      </c>
+      <c r="C286" t="s">
+        <v>623</v>
+      </c>
+      <c r="D286" t="s">
+        <v>20</v>
+      </c>
+      <c r="E286" t="s">
+        <v>624</v>
+      </c>
+      <c r="F286" t="s">
+        <v>625</v>
+      </c>
+      <c r="G286"/>
+      <c r="H286"/>
+      <c r="I286">
+        <v>2016</v>
+      </c>
+      <c r="J286">
+        <v>7</v>
+      </c>
+      <c r="K286"/>
+      <c r="L286"/>
+      <c r="M286"/>
+      <c r="N286" t="s">
+        <v>668</v>
+      </c>
+      <c r="O286" t="s">
+        <v>669</v>
+      </c>
+      <c r="P286" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q286" t="s">
+        <v>26</v>
+      </c>
+      <c r="R286">
+        <v>113000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:18">
+      <c r="A287">
+        <v>10888909</v>
+      </c>
+      <c r="B287" t="s">
+        <v>622</v>
+      </c>
+      <c r="C287" t="s">
+        <v>623</v>
+      </c>
+      <c r="D287" t="s">
+        <v>20</v>
+      </c>
+      <c r="E287" t="s">
+        <v>624</v>
+      </c>
+      <c r="F287" t="s">
+        <v>625</v>
+      </c>
+      <c r="G287"/>
+      <c r="H287"/>
+      <c r="I287">
+        <v>2016</v>
+      </c>
+      <c r="J287">
+        <v>7</v>
+      </c>
+      <c r="K287"/>
+      <c r="L287"/>
+      <c r="M287"/>
+      <c r="N287" t="s">
+        <v>671</v>
+      </c>
+      <c r="O287" t="s">
+        <v>672</v>
+      </c>
+      <c r="P287" t="s">
+        <v>673</v>
+      </c>
+      <c r="Q287" t="s">
+        <v>26</v>
+      </c>
+      <c r="R287">
+        <v>119000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:18">
+      <c r="A288">
+        <v>10888909</v>
+      </c>
+      <c r="B288" t="s">
+        <v>622</v>
+      </c>
+      <c r="C288" t="s">
+        <v>623</v>
+      </c>
+      <c r="D288" t="s">
+        <v>20</v>
+      </c>
+      <c r="E288" t="s">
+        <v>624</v>
+      </c>
+      <c r="F288" t="s">
+        <v>625</v>
+      </c>
+      <c r="G288"/>
+      <c r="H288"/>
+      <c r="I288">
+        <v>2016</v>
+      </c>
+      <c r="J288">
+        <v>7</v>
+      </c>
+      <c r="K288"/>
+      <c r="L288"/>
+      <c r="M288"/>
+      <c r="N288" t="s">
+        <v>674</v>
+      </c>
+      <c r="O288" t="s">
+        <v>675</v>
+      </c>
+      <c r="P288" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q288" t="s">
+        <v>26</v>
+      </c>
+      <c r="R288">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18">
+      <c r="A289">
+        <v>10888909</v>
+      </c>
+      <c r="B289" t="s">
+        <v>622</v>
+      </c>
+      <c r="C289" t="s">
+        <v>623</v>
+      </c>
+      <c r="D289" t="s">
+        <v>20</v>
+      </c>
+      <c r="E289" t="s">
+        <v>624</v>
+      </c>
+      <c r="F289" t="s">
+        <v>625</v>
+      </c>
+      <c r="G289"/>
+      <c r="H289"/>
+      <c r="I289">
+        <v>2016</v>
+      </c>
+      <c r="J289">
+        <v>7</v>
+      </c>
+      <c r="K289"/>
+      <c r="L289"/>
+      <c r="M289"/>
+      <c r="N289" t="s">
+        <v>676</v>
+      </c>
+      <c r="O289" t="s">
+        <v>677</v>
+      </c>
+      <c r="P289" t="s">
+        <v>678</v>
+      </c>
+      <c r="Q289" t="s">
+        <v>26</v>
+      </c>
+      <c r="R289">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18">
+      <c r="A290">
+        <v>10888909</v>
+      </c>
+      <c r="B290" t="s">
+        <v>622</v>
+      </c>
+      <c r="C290" t="s">
+        <v>623</v>
+      </c>
+      <c r="D290" t="s">
+        <v>20</v>
+      </c>
+      <c r="E290" t="s">
+        <v>624</v>
+      </c>
+      <c r="F290" t="s">
+        <v>625</v>
+      </c>
+      <c r="G290"/>
+      <c r="H290"/>
+      <c r="I290">
+        <v>2016</v>
+      </c>
+      <c r="J290">
+        <v>7</v>
+      </c>
+      <c r="K290"/>
+      <c r="L290"/>
+      <c r="M290"/>
+      <c r="N290" t="s">
+        <v>679</v>
+      </c>
+      <c r="O290" t="s">
+        <v>680</v>
+      </c>
+      <c r="P290" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q290" t="s">
+        <v>26</v>
+      </c>
+      <c r="R290">
+        <v>30500</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18">
+      <c r="A291">
+        <v>10888909</v>
+      </c>
+      <c r="B291" t="s">
+        <v>622</v>
+      </c>
+      <c r="C291" t="s">
+        <v>623</v>
+      </c>
+      <c r="D291" t="s">
+        <v>20</v>
+      </c>
+      <c r="E291" t="s">
+        <v>624</v>
+      </c>
+      <c r="F291" t="s">
+        <v>625</v>
+      </c>
+      <c r="G291"/>
+      <c r="H291"/>
+      <c r="I291">
+        <v>2016</v>
+      </c>
+      <c r="J291">
+        <v>7</v>
+      </c>
+      <c r="K291"/>
+      <c r="L291"/>
+      <c r="M291"/>
+      <c r="N291" t="s">
+        <v>682</v>
+      </c>
+      <c r="O291" t="s">
+        <v>675</v>
+      </c>
+      <c r="P291" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q291" t="s">
+        <v>26</v>
+      </c>
+      <c r="R291">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18">
+      <c r="A292">
+        <v>10888909</v>
+      </c>
+      <c r="B292" t="s">
+        <v>622</v>
+      </c>
+      <c r="C292" t="s">
+        <v>623</v>
+      </c>
+      <c r="D292" t="s">
+        <v>20</v>
+      </c>
+      <c r="E292" t="s">
+        <v>624</v>
+      </c>
+      <c r="F292" t="s">
+        <v>625</v>
+      </c>
+      <c r="G292"/>
+      <c r="H292"/>
+      <c r="I292">
+        <v>2016</v>
+      </c>
+      <c r="J292">
+        <v>7</v>
+      </c>
+      <c r="K292"/>
+      <c r="L292"/>
+      <c r="M292"/>
+      <c r="N292" t="s">
+        <v>684</v>
+      </c>
+      <c r="O292" t="s">
+        <v>685</v>
+      </c>
+      <c r="P292" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q292" t="s">
+        <v>26</v>
+      </c>
+      <c r="R292">
+        <v>121000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18">
+      <c r="A293">
+        <v>10888909</v>
+      </c>
+      <c r="B293" t="s">
+        <v>622</v>
+      </c>
+      <c r="C293" t="s">
+        <v>623</v>
+      </c>
+      <c r="D293" t="s">
+        <v>20</v>
+      </c>
+      <c r="E293" t="s">
+        <v>624</v>
+      </c>
+      <c r="F293" t="s">
+        <v>625</v>
+      </c>
+      <c r="G293"/>
+      <c r="H293"/>
+      <c r="I293">
+        <v>2016</v>
+      </c>
+      <c r="J293">
+        <v>7</v>
+      </c>
+      <c r="K293"/>
+      <c r="L293"/>
+      <c r="M293"/>
+      <c r="N293" t="s">
+        <v>687</v>
+      </c>
+      <c r="O293" t="s">
+        <v>688</v>
+      </c>
+      <c r="P293" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q293" t="s">
+        <v>26</v>
+      </c>
+      <c r="R293">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18">
+      <c r="A294">
+        <v>10888909</v>
+      </c>
+      <c r="B294" t="s">
+        <v>622</v>
+      </c>
+      <c r="C294" t="s">
+        <v>623</v>
+      </c>
+      <c r="D294" t="s">
+        <v>20</v>
+      </c>
+      <c r="E294" t="s">
+        <v>624</v>
+      </c>
+      <c r="F294" t="s">
+        <v>625</v>
+      </c>
+      <c r="G294"/>
+      <c r="H294"/>
+      <c r="I294">
+        <v>2016</v>
+      </c>
+      <c r="J294">
+        <v>7</v>
+      </c>
+      <c r="K294"/>
+      <c r="L294"/>
+      <c r="M294"/>
+      <c r="N294" t="s">
+        <v>690</v>
+      </c>
+      <c r="O294" t="s">
+        <v>691</v>
+      </c>
+      <c r="P294" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q294" t="s">
+        <v>26</v>
+      </c>
+      <c r="R294">
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18">
+      <c r="A295">
+        <v>10888909</v>
+      </c>
+      <c r="B295" t="s">
+        <v>622</v>
+      </c>
+      <c r="C295" t="s">
+        <v>623</v>
+      </c>
+      <c r="D295" t="s">
+        <v>20</v>
+      </c>
+      <c r="E295" t="s">
+        <v>624</v>
+      </c>
+      <c r="F295" t="s">
+        <v>625</v>
+      </c>
+      <c r="G295"/>
+      <c r="H295"/>
+      <c r="I295">
+        <v>2016</v>
+      </c>
+      <c r="J295">
+        <v>7</v>
+      </c>
+      <c r="K295"/>
+      <c r="L295"/>
+      <c r="M295"/>
+      <c r="N295" t="s">
+        <v>692</v>
+      </c>
+      <c r="O295" t="s">
+        <v>693</v>
+      </c>
+      <c r="P295" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q295" t="s">
+        <v>26</v>
+      </c>
+      <c r="R295">
+        <v>177500</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18">
+      <c r="A296">
+        <v>10888909</v>
+      </c>
+      <c r="B296" t="s">
+        <v>622</v>
+      </c>
+      <c r="C296" t="s">
+        <v>623</v>
+      </c>
+      <c r="D296" t="s">
+        <v>20</v>
+      </c>
+      <c r="E296" t="s">
+        <v>624</v>
+      </c>
+      <c r="F296" t="s">
+        <v>625</v>
+      </c>
+      <c r="G296"/>
+      <c r="H296"/>
+      <c r="I296">
+        <v>2016</v>
+      </c>
+      <c r="J296">
+        <v>7</v>
+      </c>
+      <c r="K296"/>
+      <c r="L296"/>
+      <c r="M296"/>
+      <c r="N296" t="s">
+        <v>695</v>
+      </c>
+      <c r="O296" t="s">
+        <v>557</v>
+      </c>
+      <c r="P296" t="s">
+        <v>696</v>
+      </c>
+      <c r="Q296" t="s">
+        <v>26</v>
+      </c>
+      <c r="R296">
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18">
+      <c r="A297">
+        <v>10888909</v>
+      </c>
+      <c r="B297" t="s">
+        <v>622</v>
+      </c>
+      <c r="C297" t="s">
+        <v>623</v>
+      </c>
+      <c r="D297" t="s">
+        <v>20</v>
+      </c>
+      <c r="E297" t="s">
+        <v>624</v>
+      </c>
+      <c r="F297" t="s">
+        <v>625</v>
+      </c>
+      <c r="G297"/>
+      <c r="H297"/>
+      <c r="I297">
+        <v>2016</v>
+      </c>
+      <c r="J297">
+        <v>7</v>
+      </c>
+      <c r="K297"/>
+      <c r="L297"/>
+      <c r="M297"/>
+      <c r="N297" t="s">
+        <v>697</v>
+      </c>
+      <c r="O297" t="s">
+        <v>698</v>
+      </c>
+      <c r="P297" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q297" t="s">
+        <v>26</v>
+      </c>
+      <c r="R297">
+        <v>162000</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18">
+      <c r="A298">
+        <v>10888909</v>
+      </c>
+      <c r="B298" t="s">
+        <v>622</v>
+      </c>
+      <c r="C298" t="s">
+        <v>623</v>
+      </c>
+      <c r="D298" t="s">
+        <v>20</v>
+      </c>
+      <c r="E298" t="s">
+        <v>624</v>
+      </c>
+      <c r="F298" t="s">
+        <v>625</v>
+      </c>
+      <c r="G298"/>
+      <c r="H298"/>
+      <c r="I298">
+        <v>2016</v>
+      </c>
+      <c r="J298">
+        <v>7</v>
+      </c>
+      <c r="K298"/>
+      <c r="L298"/>
+      <c r="M298"/>
+      <c r="N298" t="s">
+        <v>699</v>
+      </c>
+      <c r="O298" t="s">
+        <v>650</v>
+      </c>
+      <c r="P298" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q298" t="s">
+        <v>26</v>
+      </c>
+      <c r="R298">
+        <v>329000</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18">
+      <c r="A299">
+        <v>10888909</v>
+      </c>
+      <c r="B299" t="s">
+        <v>622</v>
+      </c>
+      <c r="C299" t="s">
+        <v>623</v>
+      </c>
+      <c r="D299" t="s">
+        <v>20</v>
+      </c>
+      <c r="E299" t="s">
+        <v>624</v>
+      </c>
+      <c r="F299" t="s">
+        <v>625</v>
+      </c>
+      <c r="G299"/>
+      <c r="H299"/>
+      <c r="I299">
+        <v>2016</v>
+      </c>
+      <c r="J299">
+        <v>7</v>
+      </c>
+      <c r="K299"/>
+      <c r="L299"/>
+      <c r="M299"/>
+      <c r="N299" t="s">
+        <v>352</v>
+      </c>
+      <c r="O299" t="s">
+        <v>701</v>
+      </c>
+      <c r="P299" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q299" t="s">
+        <v>26</v>
+      </c>
+      <c r="R299">
+        <v>570000</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18">
+      <c r="A300">
+        <v>10888909</v>
+      </c>
+      <c r="B300" t="s">
+        <v>622</v>
+      </c>
+      <c r="C300" t="s">
+        <v>623</v>
+      </c>
+      <c r="D300" t="s">
+        <v>20</v>
+      </c>
+      <c r="E300" t="s">
+        <v>624</v>
+      </c>
+      <c r="F300" t="s">
+        <v>625</v>
+      </c>
+      <c r="G300"/>
+      <c r="H300"/>
+      <c r="I300">
+        <v>2016</v>
+      </c>
+      <c r="J300">
+        <v>7</v>
+      </c>
+      <c r="K300"/>
+      <c r="L300"/>
+      <c r="M300"/>
+      <c r="N300" t="s">
+        <v>703</v>
+      </c>
+      <c r="O300" t="s">
+        <v>662</v>
+      </c>
+      <c r="P300" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q300" t="s">
+        <v>26</v>
+      </c>
+      <c r="R300">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18">
+      <c r="A301">
+        <v>10888909</v>
+      </c>
+      <c r="B301" t="s">
+        <v>622</v>
+      </c>
+      <c r="C301" t="s">
+        <v>623</v>
+      </c>
+      <c r="D301" t="s">
+        <v>20</v>
+      </c>
+      <c r="E301" t="s">
+        <v>624</v>
+      </c>
+      <c r="F301" t="s">
+        <v>625</v>
+      </c>
+      <c r="G301"/>
+      <c r="H301"/>
+      <c r="I301">
+        <v>2016</v>
+      </c>
+      <c r="J301">
+        <v>7</v>
+      </c>
+      <c r="K301"/>
+      <c r="L301"/>
+      <c r="M301"/>
+      <c r="N301" t="s">
+        <v>704</v>
+      </c>
+      <c r="O301" t="s">
+        <v>557</v>
+      </c>
+      <c r="P301" t="s">
+        <v>705</v>
+      </c>
+      <c r="Q301" t="s">
+        <v>26</v>
+      </c>
+      <c r="R301">
+        <v>116000</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18">
+      <c r="A302">
+        <v>10888909</v>
+      </c>
+      <c r="B302" t="s">
+        <v>622</v>
+      </c>
+      <c r="C302" t="s">
+        <v>623</v>
+      </c>
+      <c r="D302" t="s">
+        <v>20</v>
+      </c>
+      <c r="E302" t="s">
+        <v>624</v>
+      </c>
+      <c r="F302" t="s">
+        <v>625</v>
+      </c>
+      <c r="G302"/>
+      <c r="H302"/>
+      <c r="I302">
+        <v>2016</v>
+      </c>
+      <c r="J302">
+        <v>7</v>
+      </c>
+      <c r="K302"/>
+      <c r="L302"/>
+      <c r="M302"/>
+      <c r="N302" t="s">
+        <v>706</v>
+      </c>
+      <c r="O302" t="s">
+        <v>707</v>
+      </c>
+      <c r="P302" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q302" t="s">
+        <v>26</v>
+      </c>
+      <c r="R302">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18">
+      <c r="A303">
+        <v>10888909</v>
+      </c>
+      <c r="B303" t="s">
+        <v>622</v>
+      </c>
+      <c r="C303" t="s">
+        <v>623</v>
+      </c>
+      <c r="D303" t="s">
+        <v>20</v>
+      </c>
+      <c r="E303" t="s">
+        <v>624</v>
+      </c>
+      <c r="F303" t="s">
+        <v>625</v>
+      </c>
+      <c r="G303"/>
+      <c r="H303"/>
+      <c r="I303">
+        <v>2016</v>
+      </c>
+      <c r="J303">
+        <v>7</v>
+      </c>
+      <c r="K303"/>
+      <c r="L303"/>
+      <c r="M303"/>
+      <c r="N303" t="s">
+        <v>709</v>
+      </c>
+      <c r="O303" t="s">
+        <v>557</v>
+      </c>
+      <c r="P303" t="s">
+        <v>710</v>
+      </c>
+      <c r="Q303" t="s">
+        <v>26</v>
+      </c>
+      <c r="R303">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18">
+      <c r="A304">
+        <v>10888909</v>
+      </c>
+      <c r="B304" t="s">
+        <v>622</v>
+      </c>
+      <c r="C304" t="s">
+        <v>623</v>
+      </c>
+      <c r="D304" t="s">
+        <v>20</v>
+      </c>
+      <c r="E304" t="s">
+        <v>624</v>
+      </c>
+      <c r="F304" t="s">
+        <v>625</v>
+      </c>
+      <c r="G304"/>
+      <c r="H304"/>
+      <c r="I304">
+        <v>2016</v>
+      </c>
+      <c r="J304">
+        <v>7</v>
+      </c>
+      <c r="K304"/>
+      <c r="L304"/>
+      <c r="M304"/>
+      <c r="N304" t="s">
+        <v>711</v>
+      </c>
+      <c r="O304" t="s">
+        <v>650</v>
+      </c>
+      <c r="P304" t="s">
+        <v>712</v>
+      </c>
+      <c r="Q304" t="s">
+        <v>26</v>
+      </c>
+      <c r="R304">
+        <v>258000</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18">
+      <c r="A305">
+        <v>10888909</v>
+      </c>
+      <c r="B305" t="s">
+        <v>622</v>
+      </c>
+      <c r="C305" t="s">
+        <v>623</v>
+      </c>
+      <c r="D305" t="s">
+        <v>20</v>
+      </c>
+      <c r="E305" t="s">
+        <v>624</v>
+      </c>
+      <c r="F305" t="s">
+        <v>625</v>
+      </c>
+      <c r="G305"/>
+      <c r="H305"/>
+      <c r="I305">
+        <v>2016</v>
+      </c>
+      <c r="J305">
+        <v>7</v>
+      </c>
+      <c r="K305"/>
+      <c r="L305"/>
+      <c r="M305"/>
+      <c r="N305" t="s">
+        <v>713</v>
+      </c>
+      <c r="O305" t="s">
+        <v>675</v>
+      </c>
+      <c r="P305" t="s">
+        <v>646</v>
+      </c>
+      <c r="Q305" t="s">
+        <v>26</v>
+      </c>
+      <c r="R305">
+        <v>185000</v>
       </c>
     </row>
   </sheetData>
